--- a/biology/Botanique/Épigée_(plante)/Épigée_(plante).xlsx
+++ b/biology/Botanique/Épigée_(plante)/Épigée_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_(plante)</t>
+          <t>Épigée_(plante)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epigaea
 Epigaea est un genre de plantes à fleurs de la famille des Ericaceae. Il s'agit de petits arbustes rampants qui mesurent généralement entre 10 et 20 centimètres de hauteur, formant de grandes parcelles. Les feuilles sont persistantes, alternes et simples, variant selon l'espèce de 2 à 10 centimètres de long. Les fleurs sont petites, blanches ou roses, avec une corolle tubulaire à cinq lobes qui apparaît au milieu du printemps. Le fruit est une capsule sèche avec de nombreuses petites graines.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_(plante)</t>
+          <t>Épigée_(plante)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (7 juillet 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (7 juillet 2022) :
 Epigaea asiatica
 Epigaea gaultherioides
 Epigaea × intertexta
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_(plante)</t>
+          <t>Épigée_(plante)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Epigaea repens est répertorié comme une espèce en voie de disparition dans certains États américains.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_(plante)</t>
+          <t>Épigée_(plante)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Mayflower était traditionnellement donné à E. repens par les Pères Pèlerins d'après leur navire le Mayflower. La plante était abondante là où le navire a atterri à Plymouth Rock, dans le Massachusetts qui en a fait depuis sa fleur nationale. C'est aussi la fleur provinciale de la Nouvelle-Écosse. Le nom Arbousier rampant reflète sa similitude avec les arbres du genre apparenté Arbutus, tout en étant beaucoup plus petit et prostré sur le sol.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_(plante)</t>
+          <t>Épigée_(plante)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Culture et utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois espèces sont cultivées comme plantes ornementales dans les rocailles, où elles ont besoin d'un sol acide et humide. Un hybride entre E. repens et E. asiatica, le intertexta de Epigaea a également été mis au point pour la plantation de jardin.
 </t>
